--- a/documents/WBS_cornbooks.xlsx
+++ b/documents/WBS_cornbooks.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="189">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,34 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.3 QnA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.1 QnA 목록 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.2 QnA 질문글 및 답변글 상세보기 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.4 QnA 글 수정 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.3 QnA 글 등록 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.5 QnA 글 삭제 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.6 QnA 목록 페이징 처리 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.1 상품 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,10 +379,6 @@
   </si>
   <si>
     <t>5. 상품판매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,10 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천재교육 풀스택 JAVA 과정 2기 2차 팀 프로젝트 - 스토어 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,6 +706,82 @@
   </si>
   <si>
     <t>5.3.3 상품 결제 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신예은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현경 신예은 김보경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신예은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신예은 김현경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오태훈 김현경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현경 오태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">김현경 신예은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신예은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신예은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현경 신예은 오태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">김보경 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +793,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,14 +829,6 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1039,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,18 +1105,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1094,16 +1123,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1121,49 +1150,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -1187,25 +1207,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1217,10 +1228,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,22 +1264,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,13 +1291,16 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1603,23 +1617,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BE119"/>
+  <dimension ref="B2:BE112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R100" sqref="R100"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.625" style="13" customWidth="1"/>
+    <col min="2" max="3" width="13.625" style="12" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="62.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="5"/>
-    <col min="9" max="9" width="8.75" style="14"/>
-    <col min="10" max="11" width="9.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="5"/>
+    <col min="7" max="7" width="8.75" style="5"/>
+    <col min="8" max="9" width="8.75" style="13"/>
+    <col min="10" max="11" width="9.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="5" customWidth="1"/>
     <col min="13" max="13" width="3.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="1" customWidth="1"/>
     <col min="15" max="54" width="4.75" style="5" customWidth="1"/>
@@ -1631,232 +1645,232 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="71"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="75">
         <v>45159</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="2:57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="75">
         <v>45168</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="2:57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="78"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="2:57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="70">
         <v>45162</v>
       </c>
-      <c r="F6" s="78"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="2:57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="79">
-        <v>1</v>
-      </c>
-      <c r="F7" s="79"/>
+      <c r="E7" s="72">
+        <v>1</v>
+      </c>
+      <c r="F7" s="72"/>
     </row>
     <row r="10" spans="2:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="81" t="s">
+      <c r="C10" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="61" t="s">
+      <c r="L10" s="54" t="s">
         <v>51</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="68" t="s">
+      <c r="N10" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="68"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="68"/>
-      <c r="AL10" s="68"/>
-      <c r="AM10" s="68"/>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="68"/>
-      <c r="AS10" s="68"/>
-      <c r="AT10" s="68"/>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="68"/>
-      <c r="AW10" s="68"/>
-      <c r="AX10" s="68"/>
-      <c r="AY10" s="68"/>
-      <c r="AZ10" s="68"/>
-      <c r="BA10" s="68"/>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="61"/>
     </row>
     <row r="11" spans="2:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="62"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="55"/>
       <c r="M11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="69" t="s">
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="67" t="s">
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67" t="s">
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="67"/>
-      <c r="AM11" s="67" t="s">
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="67"/>
-      <c r="AP11" s="67"/>
-      <c r="AQ11" s="67"/>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="67"/>
-      <c r="AT11" s="67" t="s">
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="AU11" s="67"/>
-      <c r="AV11" s="67"/>
-      <c r="AW11" s="67"/>
-      <c r="AX11" s="67"/>
-      <c r="AY11" s="67"/>
-      <c r="AZ11" s="67"/>
-      <c r="BA11" s="67" t="s">
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="BB11" s="67"/>
-      <c r="BC11" s="67"/>
+      <c r="BB11" s="60"/>
+      <c r="BC11" s="60"/>
       <c r="BD11" s="6"/>
       <c r="BE11" s="6"/>
     </row>
     <row r="12" spans="2:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="63"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>36</v>
@@ -1886,7 +1900,7 @@
         <v>44</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y12" s="7" t="s">
         <v>15</v>
@@ -1983,1886 +1997,2263 @@
       </c>
     </row>
     <row r="13" spans="2:57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="27">
+      <c r="B13" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="76">
+        <v>1</v>
+      </c>
+      <c r="I13" s="26">
         <f>K13-J13+1</f>
         <v>1</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="27">
         <v>45159</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="28">
         <v>45159</v>
       </c>
-      <c r="L13" s="11"/>
+      <c r="L13" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="31">
-        <f t="shared" ref="I14:I84" si="0">K14-J14+1</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="33">
+      <c r="B14" s="50"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="76">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" ref="I14:I77" si="0">K14-J14+1</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="30">
         <v>45159</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="31">
         <v>45159</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="2:57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="58"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="31">
+      <c r="B15" s="51"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="76">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="30">
         <v>45159</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="31">
         <v>45160</v>
       </c>
-      <c r="L15" s="11"/>
+      <c r="L15" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="2:57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="31">
+      <c r="B16" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="76">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="30">
         <v>45159</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="31">
         <v>45160</v>
       </c>
-      <c r="L16" s="11"/>
+      <c r="L16" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31">
+      <c r="B17" s="50"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="76">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="30">
         <v>45159</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="31">
         <v>45160</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
     <row r="18" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31">
+      <c r="B18" s="50"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="76">
+        <v>1</v>
+      </c>
+      <c r="I18" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="30">
         <v>45159</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="31">
         <v>45160</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31">
+      <c r="B19" s="50"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="76">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="30">
         <v>45159</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="31">
         <v>45160</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31">
+      <c r="B20" s="51"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="76">
+        <v>1</v>
+      </c>
+      <c r="I20" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="30">
         <v>45159</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="31">
         <v>45160</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="31">
+      <c r="B21" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="76">
+        <v>1</v>
+      </c>
+      <c r="I21" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="30">
         <v>45159</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="31">
         <v>45160</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="31">
+      <c r="B22" s="50"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="76">
+        <v>1</v>
+      </c>
+      <c r="I22" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="30">
         <v>45159</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="31">
         <v>45160</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
     <row r="23" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31">
+      <c r="B23" s="50"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="76">
+        <v>1</v>
+      </c>
+      <c r="I23" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="30">
         <v>45159</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="31">
         <v>45160</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="27">
+      <c r="B24" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="76">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="27">
         <v>45159</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="28">
         <v>45161</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="31">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="76">
+        <v>1</v>
+      </c>
+      <c r="I25" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="30">
         <v>45159</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="31">
         <v>45160</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
     <row r="26" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="31">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="76">
+        <v>1</v>
+      </c>
+      <c r="I26" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="30">
         <v>45159</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="31">
         <v>45160</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
     <row r="27" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="31">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="76">
+        <v>1</v>
+      </c>
+      <c r="I27" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="30">
         <v>45159</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="31">
         <v>45160</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="31">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="76">
+        <v>1</v>
+      </c>
+      <c r="I28" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="30">
         <v>45160</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="31">
         <v>45161</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="31">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="76">
+        <v>1</v>
+      </c>
+      <c r="I29" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="30">
         <v>45160</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="31">
         <v>45161</v>
       </c>
+      <c r="L29" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="31">
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="76">
+        <v>1</v>
+      </c>
+      <c r="I30" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="33">
         <v>45160</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="34">
         <v>45161</v>
       </c>
+      <c r="L30" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="27">
+      <c r="B31" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="76">
+        <v>1</v>
+      </c>
+      <c r="I31" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="30">
         <v>45160</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="31">
         <v>45161</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="31">
+      <c r="F32" s="19"/>
+      <c r="G32" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="76">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="30">
         <v>45161</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="31">
         <v>45163</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J33" s="33">
+      <c r="G33" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="76">
+        <v>1</v>
+      </c>
+      <c r="I33" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="30">
         <v>45161</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="31">
         <v>45161</v>
       </c>
+      <c r="L33" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J34" s="33">
+      <c r="G34" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="76">
+        <v>1</v>
+      </c>
+      <c r="I34" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="30">
         <v>45161</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="31">
         <v>45161</v>
       </c>
+      <c r="L34" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="57"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="33">
+      <c r="G35" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="76">
+        <v>1</v>
+      </c>
+      <c r="I35" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="30">
         <v>45161</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="31">
         <v>45161</v>
       </c>
+      <c r="L35" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="20" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="31">
+      <c r="F36" s="19"/>
+      <c r="G36" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="76">
+        <v>1</v>
+      </c>
+      <c r="I36" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="30">
         <v>45161</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="31">
         <v>45162</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J37" s="33">
+      <c r="B37" s="50"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="76">
+        <v>1</v>
+      </c>
+      <c r="I37" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="30">
         <v>45161</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="30">
         <v>45161</v>
       </c>
+      <c r="L37" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="57"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="20" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="76">
+        <v>1</v>
+      </c>
+      <c r="I38" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="30">
+        <v>45161</v>
+      </c>
+      <c r="K38" s="30">
+        <v>45161</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="33">
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="50"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="76">
+        <v>1</v>
+      </c>
+      <c r="I39" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J39" s="30">
         <v>45161</v>
       </c>
-      <c r="K38" s="33">
-        <v>45161</v>
-      </c>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="39" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J39" s="33">
-        <v>45161</v>
-      </c>
-      <c r="K39" s="34">
+      <c r="K39" s="31">
         <v>45163</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="20" t="s">
+      <c r="B40" s="50"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" s="76">
+        <v>1</v>
+      </c>
+      <c r="I40" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="30">
+        <v>45161</v>
+      </c>
+      <c r="K40" s="31">
+        <v>45161</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="50"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="76">
+        <v>1</v>
+      </c>
+      <c r="I41" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="33">
+        <v>45161</v>
+      </c>
+      <c r="K41" s="34">
+        <v>45161</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="50"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="76">
+        <v>1</v>
+      </c>
+      <c r="I42" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J42" s="27">
+        <v>45162</v>
+      </c>
+      <c r="K42" s="28">
+        <v>45164</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J40" s="33">
-        <v>45161</v>
-      </c>
-      <c r="K40" s="34">
-        <v>45161</v>
-      </c>
-      <c r="O40" s="10"/>
-    </row>
-    <row r="41" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J41" s="37">
-        <v>45161</v>
-      </c>
-      <c r="K41" s="38">
-        <v>45161</v>
-      </c>
-      <c r="O41" s="10"/>
-    </row>
-    <row r="42" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J42" s="29">
-        <v>45162</v>
-      </c>
-      <c r="K42" s="30">
-        <v>45164</v>
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
     </row>
     <row r="43" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="23" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="31">
+      <c r="F43" s="22"/>
+      <c r="G43" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="76">
+        <v>1</v>
+      </c>
+      <c r="I43" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J43" s="33">
+      <c r="J43" s="30">
         <v>45162</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="31">
         <v>45163</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="57"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J44" s="33">
+      <c r="B44" s="50"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="76">
+        <v>1</v>
+      </c>
+      <c r="I44" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="30">
         <v>45162</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="31">
         <v>45162</v>
       </c>
+      <c r="L44" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="57"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="31">
+      <c r="G45" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" s="76">
+        <v>1</v>
+      </c>
+      <c r="I45" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J45" s="33">
+      <c r="J45" s="30">
         <v>45162</v>
       </c>
-      <c r="K45" s="34">
+      <c r="K45" s="31">
         <v>45163</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
     </row>
     <row r="46" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="57"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="32"/>
-      <c r="I46" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J46" s="33">
+      <c r="B46" s="50"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="76">
+        <v>1</v>
+      </c>
+      <c r="I46" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J46" s="30">
         <v>45162</v>
       </c>
-      <c r="K46" s="34">
+      <c r="K46" s="31">
         <v>45162</v>
       </c>
+      <c r="L46" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="P46" s="10"/>
     </row>
     <row r="47" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="57"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J47" s="33">
+      <c r="B47" s="50"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="76">
+        <v>1</v>
+      </c>
+      <c r="I47" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="30">
         <v>45162</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="31">
         <v>45162</v>
       </c>
+      <c r="L47" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="P47" s="10"/>
     </row>
     <row r="48" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="57"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="23" t="s">
+      <c r="B48" s="50"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="31">
+      <c r="F48" s="22"/>
+      <c r="G48" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="76">
+        <v>1</v>
+      </c>
+      <c r="I48" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J48" s="33">
+      <c r="J48" s="30">
         <v>45162</v>
       </c>
-      <c r="K48" s="34">
+      <c r="K48" s="31">
         <v>45164</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
     <row r="49" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="57"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
+      <c r="B49" s="50"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H49" s="32"/>
-      <c r="I49" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J49" s="33">
+      <c r="G49" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="76">
+        <v>1</v>
+      </c>
+      <c r="I49" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J49" s="30">
         <v>45162</v>
       </c>
-      <c r="K49" s="34">
+      <c r="K49" s="31">
         <v>45162</v>
       </c>
+      <c r="L49" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="P49" s="10"/>
     </row>
     <row r="50" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="57"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23" t="s">
+      <c r="B50" s="50"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" s="32"/>
-      <c r="I50" s="31">
+      <c r="G50" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="76">
+        <v>1</v>
+      </c>
+      <c r="I50" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J50" s="33">
+      <c r="J50" s="30">
         <v>45162</v>
       </c>
-      <c r="K50" s="34">
+      <c r="K50" s="31">
         <v>45164</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
     <row r="51" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="57"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25" t="s">
+      <c r="B51" s="50"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="35">
+      <c r="G51" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="76">
+        <v>1</v>
+      </c>
+      <c r="I51" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="33">
         <v>45162</v>
       </c>
-      <c r="K51" s="38">
+      <c r="K51" s="34">
         <v>45163</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="57"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="44" t="s">
+      <c r="B52" s="50"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="27">
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" s="76">
+        <v>1</v>
+      </c>
+      <c r="I52" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J52" s="29">
+      <c r="J52" s="27">
         <v>45163</v>
       </c>
-      <c r="K52" s="30">
+      <c r="K52" s="28">
         <v>45164</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
     <row r="53" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="57"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="32"/>
-      <c r="I53" s="31">
+      <c r="B53" s="50"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="76">
+        <v>1</v>
+      </c>
+      <c r="I53" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J53" s="33">
+      <c r="J53" s="30">
         <v>45163</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K53" s="31">
         <v>45164</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
     </row>
     <row r="54" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="57"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J54" s="33">
+      <c r="B54" s="50"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" s="76">
+        <v>1</v>
+      </c>
+      <c r="I54" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="30">
         <v>45163</v>
       </c>
-      <c r="K54" s="34">
+      <c r="K54" s="31">
         <v>45163</v>
       </c>
+      <c r="L54" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="Q54" s="10"/>
     </row>
     <row r="55" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="57"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" s="32"/>
-      <c r="I55" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J55" s="33">
+      <c r="B55" s="50"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="76">
+        <v>1</v>
+      </c>
+      <c r="I55" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="30">
         <v>45163</v>
       </c>
-      <c r="K55" s="34">
+      <c r="K55" s="31">
         <v>45163</v>
       </c>
+      <c r="L55" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="Q55" s="10"/>
     </row>
     <row r="56" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="57"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J56" s="33">
+      <c r="B56" s="50"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="76">
+        <v>1</v>
+      </c>
+      <c r="I56" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="30">
         <v>45163</v>
       </c>
-      <c r="K56" s="34">
+      <c r="K56" s="31">
         <v>45163</v>
       </c>
+      <c r="L56" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="Q56" s="10"/>
     </row>
     <row r="57" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="57"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" s="32"/>
-      <c r="I57" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J57" s="33">
+      <c r="B57" s="50"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="76">
+        <v>1</v>
+      </c>
+      <c r="I57" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J57" s="30">
         <v>45163</v>
       </c>
-      <c r="K57" s="34">
+      <c r="K57" s="31">
         <v>45163</v>
       </c>
+      <c r="L57" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="Q57" s="10"/>
     </row>
     <row r="58" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="57"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H58" s="32"/>
-      <c r="I58" s="31">
+      <c r="B58" s="50"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="76">
+        <v>1</v>
+      </c>
+      <c r="I58" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J58" s="33">
+      <c r="J58" s="30">
         <v>45163</v>
       </c>
-      <c r="K58" s="34">
+      <c r="K58" s="31">
         <v>45164</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
     </row>
     <row r="59" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="57"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="23" t="s">
+      <c r="B59" s="50"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="22"/>
+      <c r="G59" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" s="76">
+        <v>1</v>
+      </c>
+      <c r="I59" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="30">
+        <v>45163</v>
+      </c>
+      <c r="K59" s="31">
+        <v>45163</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="50"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="76">
+        <v>1</v>
+      </c>
+      <c r="I60" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="30">
+        <v>45163</v>
+      </c>
+      <c r="K60" s="31">
+        <v>45163</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="50"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H61" s="76">
+        <v>1</v>
+      </c>
+      <c r="I61" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J61" s="30">
+        <v>45163</v>
+      </c>
+      <c r="K61" s="31">
+        <v>45163</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="50"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H62" s="76">
+        <v>1</v>
+      </c>
+      <c r="I62" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="30">
+        <v>45163</v>
+      </c>
+      <c r="K62" s="31">
+        <v>45163</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="50"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="32"/>
-      <c r="I59" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J59" s="33">
+      <c r="G63" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="76">
+        <v>1</v>
+      </c>
+      <c r="I63" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J63" s="30">
         <v>45163</v>
       </c>
-      <c r="K59" s="34">
+      <c r="K63" s="31">
         <v>45163</v>
       </c>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="57"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G60" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H60" s="32"/>
-      <c r="I60" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J60" s="33">
+      <c r="L63" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="50"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H64" s="76">
+        <v>1</v>
+      </c>
+      <c r="I64" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J64" s="30">
+        <v>45162</v>
+      </c>
+      <c r="K64" s="31">
         <v>45163</v>
       </c>
-      <c r="K60" s="34">
-        <v>45163</v>
-      </c>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="57"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G61" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" s="32"/>
-      <c r="I61" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J61" s="33">
-        <v>45163</v>
-      </c>
-      <c r="K61" s="34">
-        <v>45163</v>
-      </c>
-      <c r="Q61" s="10"/>
-    </row>
-    <row r="62" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="57"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H62" s="32"/>
-      <c r="I62" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J62" s="33">
-        <v>45163</v>
-      </c>
-      <c r="K62" s="34">
-        <v>45163</v>
-      </c>
-      <c r="Q62" s="10"/>
-    </row>
-    <row r="63" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="57"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G63" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H63" s="32"/>
-      <c r="I63" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J63" s="33">
-        <v>45163</v>
-      </c>
-      <c r="K63" s="34">
-        <v>45163</v>
-      </c>
-      <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="2:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="57"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H64" s="32"/>
-      <c r="I64" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J64" s="33">
-        <v>45162</v>
-      </c>
-      <c r="K64" s="34">
-        <v>45163</v>
+      <c r="L64" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="57"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="G65" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J65" s="33">
+    <row r="65" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="50"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65" s="76">
+        <v>1</v>
+      </c>
+      <c r="I65" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="30">
         <v>45163</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K65" s="31">
         <v>45163</v>
       </c>
+      <c r="L65" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="Q65" s="10"/>
     </row>
-    <row r="66" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="57"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H66" s="36"/>
-      <c r="I66" s="35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J66" s="37">
+    <row r="66" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="50"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H66" s="76">
+        <v>1</v>
+      </c>
+      <c r="I66" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J66" s="33">
         <v>45163</v>
       </c>
-      <c r="K66" s="38">
+      <c r="K66" s="34">
         <v>45163</v>
       </c>
+      <c r="L66" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="Q66" s="10"/>
     </row>
-    <row r="67" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="57"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H67" s="28"/>
-      <c r="I67" s="27">
+    <row r="67" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="50"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67" s="76">
+        <v>1</v>
+      </c>
+      <c r="I67" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J67" s="29">
+      <c r="J67" s="27">
         <v>45164</v>
       </c>
-      <c r="K67" s="30">
+      <c r="K67" s="28">
         <v>45165</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
     </row>
-    <row r="68" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="57"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="23" t="s">
+    <row r="68" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="50"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H68" s="32"/>
-      <c r="I68" s="31">
+      <c r="F68" s="22"/>
+      <c r="G68" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H68" s="76">
+        <v>1</v>
+      </c>
+      <c r="I68" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J68" s="33">
+      <c r="J68" s="30">
         <v>45164</v>
       </c>
-      <c r="K68" s="34">
+      <c r="K68" s="31">
         <v>45165</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
     </row>
-    <row r="69" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="57"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23" t="s">
+    <row r="69" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="50"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G69" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" s="32"/>
-      <c r="I69" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J69" s="33">
+      <c r="G69" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H69" s="76">
+        <v>1</v>
+      </c>
+      <c r="I69" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J69" s="30">
         <v>45164</v>
       </c>
-      <c r="K69" s="34">
+      <c r="K69" s="31">
         <v>45164</v>
       </c>
+      <c r="L69" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="R69" s="10"/>
     </row>
-    <row r="70" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="57"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23" t="s">
+    <row r="70" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="50"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" s="32"/>
-      <c r="I70" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J70" s="33">
+      <c r="G70" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H70" s="76">
+        <v>1</v>
+      </c>
+      <c r="I70" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J70" s="30">
         <v>45164</v>
       </c>
-      <c r="K70" s="34">
+      <c r="K70" s="31">
         <v>45164</v>
       </c>
+      <c r="L70" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="57"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23" t="s">
+    <row r="71" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="50"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H71" s="32"/>
-      <c r="I71" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J71" s="33">
+      <c r="G71" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H71" s="76">
+        <v>1</v>
+      </c>
+      <c r="I71" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J71" s="30">
         <v>45164</v>
       </c>
-      <c r="K71" s="34">
+      <c r="K71" s="31">
         <v>45164</v>
       </c>
+      <c r="L71" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="R71" s="10"/>
     </row>
-    <row r="72" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="57"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23" t="s">
+    <row r="72" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="50"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G72" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H72" s="32"/>
-      <c r="I72" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J72" s="33">
+      <c r="G72" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H72" s="76">
+        <v>1</v>
+      </c>
+      <c r="I72" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J72" s="30">
         <v>45164</v>
       </c>
-      <c r="K72" s="34">
+      <c r="K72" s="31">
         <v>45164</v>
       </c>
+      <c r="L72" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="R72" s="10"/>
     </row>
-    <row r="73" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="57"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23" t="s">
+    <row r="73" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="50"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H73" s="32"/>
-      <c r="I73" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J73" s="33">
+      <c r="G73" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" s="76">
+        <v>1</v>
+      </c>
+      <c r="I73" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="30">
         <v>45164</v>
       </c>
-      <c r="K73" s="34">
+      <c r="K73" s="31">
         <v>45164</v>
       </c>
+      <c r="L73" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="57"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23" t="s">
+    <row r="74" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="50"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G74" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H74" s="32"/>
-      <c r="I74" s="31">
+      <c r="G74" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H74" s="76">
+        <v>1</v>
+      </c>
+      <c r="I74" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J74" s="33">
+      <c r="J74" s="30">
         <v>45164</v>
       </c>
-      <c r="K74" s="34">
+      <c r="K74" s="31">
         <v>45165</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="57"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="23" t="s">
+    <row r="75" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="50"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H75" s="32"/>
-      <c r="I75" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J75" s="33">
+      <c r="F75" s="22"/>
+      <c r="G75" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H75" s="76">
+        <v>1</v>
+      </c>
+      <c r="I75" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J75" s="30">
         <v>45164</v>
       </c>
-      <c r="K75" s="34">
+      <c r="K75" s="31">
         <v>45164</v>
       </c>
+      <c r="L75" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="57"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23" t="s">
+    <row r="76" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="50"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G76" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H76" s="32"/>
-      <c r="I76" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J76" s="33">
+      <c r="G76" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H76" s="76">
+        <v>1</v>
+      </c>
+      <c r="I76" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J76" s="30">
         <v>45164</v>
       </c>
-      <c r="K76" s="34">
+      <c r="K76" s="31">
         <v>45164</v>
       </c>
+      <c r="L76" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="R76" s="10"/>
     </row>
-    <row r="77" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="57"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="23" t="s">
+    <row r="77" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="50"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H77" s="76">
+        <v>1</v>
+      </c>
+      <c r="I77" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J77" s="27">
+        <v>45165</v>
+      </c>
+      <c r="K77" s="28">
+        <v>45166</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+    </row>
+    <row r="78" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="50"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H77" s="32"/>
-      <c r="I77" s="31">
-        <f t="shared" si="0"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H78" s="76">
+        <v>1</v>
+      </c>
+      <c r="I78" s="29">
+        <f t="shared" ref="I78:I107" si="1">K78-J78+1</f>
         <v>2</v>
       </c>
-      <c r="J77" s="33">
-        <v>45164</v>
-      </c>
-      <c r="K77" s="34">
+      <c r="J78" s="30">
         <v>45165</v>
       </c>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-    </row>
-    <row r="78" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="57"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23" t="s">
+      <c r="K78" s="31">
+        <v>45166</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+    </row>
+    <row r="79" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="50"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G78" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H78" s="32"/>
-      <c r="I78" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J78" s="33">
-        <v>45164</v>
-      </c>
-      <c r="K78" s="34">
-        <v>45164</v>
-      </c>
-      <c r="R78" s="10"/>
-    </row>
-    <row r="79" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="57"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23" t="s">
+      <c r="G79" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="76">
+        <v>1</v>
+      </c>
+      <c r="I79" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J79" s="30">
+        <v>45165</v>
+      </c>
+      <c r="K79" s="31">
+        <v>45165</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S79" s="10"/>
+    </row>
+    <row r="80" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="50"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G79" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H79" s="32"/>
-      <c r="I79" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J79" s="33">
-        <v>45164</v>
-      </c>
-      <c r="K79" s="34">
-        <v>45164</v>
-      </c>
-      <c r="R79" s="10"/>
-    </row>
-    <row r="80" spans="2:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="57"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23" t="s">
+      <c r="G80" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H80" s="76">
+        <v>1</v>
+      </c>
+      <c r="I80" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J80" s="30">
+        <v>45165</v>
+      </c>
+      <c r="K80" s="31">
+        <v>45166</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+    </row>
+    <row r="81" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="50"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="22"/>
+      <c r="G81" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H81" s="76">
+        <v>1</v>
+      </c>
+      <c r="I81" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J81" s="30">
+        <v>45165</v>
+      </c>
+      <c r="K81" s="31">
+        <v>45166</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+    </row>
+    <row r="82" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="50"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G80" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H80" s="32"/>
-      <c r="I80" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J80" s="33">
-        <v>45164</v>
-      </c>
-      <c r="K80" s="34">
-        <v>45164</v>
-      </c>
-      <c r="R80" s="10"/>
-    </row>
-    <row r="81" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="57"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H81" s="32"/>
-      <c r="I81" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J81" s="33">
-        <v>45164</v>
-      </c>
-      <c r="K81" s="34">
-        <v>45164</v>
-      </c>
-      <c r="R81" s="10"/>
-    </row>
-    <row r="82" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="57"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23" t="s">
+      <c r="G82" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H82" s="76">
+        <v>1</v>
+      </c>
+      <c r="I82" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J82" s="30">
+        <v>45165</v>
+      </c>
+      <c r="K82" s="31">
+        <v>45165</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S82" s="10"/>
+    </row>
+    <row r="83" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="50"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G82" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H82" s="32"/>
-      <c r="I82" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J82" s="33">
-        <v>45164</v>
-      </c>
-      <c r="K82" s="34">
-        <v>45164</v>
-      </c>
-      <c r="R82" s="10"/>
-    </row>
-    <row r="83" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="57"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25" t="s">
+      <c r="G83" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H83" s="76">
+        <v>1</v>
+      </c>
+      <c r="I83" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J83" s="30">
+        <v>45165</v>
+      </c>
+      <c r="K83" s="31">
+        <v>45166</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+    </row>
+    <row r="84" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="50"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G83" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H83" s="36"/>
-      <c r="I83" s="35">
-        <f t="shared" si="0"/>
+      <c r="G84" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H84" s="76">
+        <v>1</v>
+      </c>
+      <c r="I84" s="29">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J83" s="37">
-        <v>45164</v>
-      </c>
-      <c r="K83" s="38">
+      <c r="J84" s="30">
         <v>45165</v>
       </c>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-    </row>
-    <row r="84" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="57"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H84" s="28"/>
-      <c r="I84" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J84" s="29">
-        <v>45165</v>
-      </c>
-      <c r="K84" s="30">
+      <c r="K84" s="31">
         <v>45166</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
     </row>
     <row r="85" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="57"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H85" s="32"/>
-      <c r="I85" s="31">
-        <f t="shared" ref="I85:I114" si="1">K85-J85+1</f>
+      <c r="B85" s="50"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" s="22"/>
+      <c r="G85" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" s="76">
+        <v>1</v>
+      </c>
+      <c r="I85" s="29">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J85" s="33">
+      <c r="J85" s="30">
         <v>45165</v>
       </c>
-      <c r="K85" s="34">
+      <c r="K85" s="31">
         <v>45166</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
     </row>
     <row r="86" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="57"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G86" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H86" s="32"/>
-      <c r="I86" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J86" s="33">
-        <v>45165</v>
-      </c>
-      <c r="K86" s="34">
-        <v>45165</v>
-      </c>
-      <c r="S86" s="10"/>
-    </row>
-    <row r="87" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="57"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H87" s="32"/>
-      <c r="I87" s="31">
+      <c r="B86" s="50"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H86" s="76">
+        <v>1</v>
+      </c>
+      <c r="I86" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J87" s="33">
+      <c r="J86" s="30">
         <v>45165</v>
       </c>
-      <c r="K87" s="34">
+      <c r="K86" s="31">
         <v>45166</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+    </row>
+    <row r="87" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="50"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G87" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H87" s="76">
+        <v>1</v>
+      </c>
+      <c r="I87" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J87" s="30">
+        <v>45165</v>
+      </c>
+      <c r="K87" s="31">
+        <v>45166</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="S87" s="10"/>
       <c r="T87" s="10"/>
     </row>
     <row r="88" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="57"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H88" s="32"/>
-      <c r="I88" s="31">
+      <c r="B88" s="50"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H88" s="76">
+        <v>1</v>
+      </c>
+      <c r="I88" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3872,661 +4263,585 @@
       <c r="K88" s="34">
         <v>45166</v>
       </c>
-      <c r="S88" s="10"/>
+      <c r="L88" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
     </row>
     <row r="89" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="57"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23" t="s">
+      <c r="B89" s="50"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G89" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H89" s="32"/>
-      <c r="I89" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J89" s="33">
-        <v>45165</v>
-      </c>
-      <c r="K89" s="34">
-        <v>45165</v>
-      </c>
-      <c r="S89" s="10"/>
-    </row>
-    <row r="90" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="57"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G90" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H90" s="32"/>
-      <c r="I90" s="31">
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H89" s="76">
+        <v>1</v>
+      </c>
+      <c r="I89" s="26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J90" s="33">
-        <v>45165</v>
-      </c>
-      <c r="K90" s="34">
+      <c r="J89" s="27">
         <v>45166</v>
       </c>
-      <c r="S90" s="10"/>
-      <c r="T90" s="10"/>
-    </row>
-    <row r="91" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="57"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23" t="s">
+      <c r="K89" s="28">
+        <v>45167</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+    </row>
+    <row r="90" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="50"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G91" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H91" s="32"/>
-      <c r="I91" s="31">
+      <c r="F90" s="22"/>
+      <c r="G90" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H90" s="76">
+        <v>1</v>
+      </c>
+      <c r="I90" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J91" s="33">
+      <c r="J90" s="30">
+        <v>45166</v>
+      </c>
+      <c r="K90" s="31">
+        <v>45167</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+    </row>
+    <row r="91" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="50"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G91" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H91" s="76">
+        <v>1</v>
+      </c>
+      <c r="I91" s="29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J91" s="30">
         <v>45165</v>
       </c>
-      <c r="K91" s="34">
-        <v>45166</v>
-      </c>
-      <c r="S91" s="10"/>
+      <c r="K91" s="31">
+        <v>45167</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
     </row>
     <row r="92" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="57"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H92" s="32"/>
-      <c r="I92" s="31">
+      <c r="B92" s="50"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H92" s="76">
+        <v>1</v>
+      </c>
+      <c r="I92" s="29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J92" s="30">
+        <v>45165</v>
+      </c>
+      <c r="K92" s="31">
+        <v>45167</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+    </row>
+    <row r="93" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="50"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H93" s="76">
+        <v>1</v>
+      </c>
+      <c r="I93" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J92" s="33">
-        <v>45165</v>
-      </c>
-      <c r="K92" s="34">
+      <c r="J93" s="33">
         <v>45166</v>
       </c>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
-    </row>
-    <row r="93" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="57"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G93" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H93" s="32"/>
-      <c r="I93" s="31">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J93" s="33">
-        <v>45165</v>
-      </c>
       <c r="K93" s="34">
-        <v>45166</v>
-      </c>
-      <c r="S93" s="10"/>
+        <v>45167</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
     </row>
     <row r="94" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="57"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G94" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H94" s="32"/>
-      <c r="I94" s="31">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J94" s="33">
-        <v>45165</v>
-      </c>
-      <c r="K94" s="34">
-        <v>45166</v>
-      </c>
-      <c r="S94" s="10"/>
-      <c r="T94" s="10"/>
-    </row>
-    <row r="95" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="57"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="G95" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H95" s="36"/>
-      <c r="I95" s="35">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J95" s="37">
-        <v>45165</v>
-      </c>
-      <c r="K95" s="38">
-        <v>45166</v>
-      </c>
-      <c r="T95" s="10"/>
-      <c r="U95" s="10"/>
-    </row>
-    <row r="96" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="57"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H96" s="28"/>
-      <c r="I96" s="27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J96" s="29">
-        <v>45166</v>
-      </c>
-      <c r="K96" s="30">
-        <v>45167</v>
-      </c>
-      <c r="U96" s="10"/>
-      <c r="V96" s="10"/>
-    </row>
-    <row r="97" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="57"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H97" s="32"/>
-      <c r="I97" s="31">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J97" s="33">
-        <v>45166</v>
-      </c>
-      <c r="K97" s="34">
-        <v>45167</v>
-      </c>
-      <c r="U97" s="10"/>
-      <c r="V97" s="10"/>
-    </row>
-    <row r="98" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="57"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G98" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H98" s="32"/>
-      <c r="I98" s="31">
+      <c r="B94" s="50"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E94" s="43"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H94" s="76">
+        <v>1</v>
+      </c>
+      <c r="I94" s="26">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J98" s="33">
+      <c r="J94" s="27">
         <v>45165</v>
       </c>
-      <c r="K98" s="34">
+      <c r="K94" s="28">
         <v>45167</v>
       </c>
-      <c r="T98" s="10"/>
-      <c r="U98" s="10"/>
+      <c r="L94" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="V94" s="10"/>
+    </row>
+    <row r="95" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="50"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="38"/>
+      <c r="G95" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H95" s="76">
+        <v>1</v>
+      </c>
+      <c r="I95" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J95" s="30">
+        <v>45167</v>
+      </c>
+      <c r="K95" s="31">
+        <v>45167</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="V95" s="10"/>
+    </row>
+    <row r="96" spans="2:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="50"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G96" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H96" s="76">
+        <v>1</v>
+      </c>
+      <c r="I96" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J96" s="30">
+        <v>45167</v>
+      </c>
+      <c r="K96" s="31">
+        <v>45167</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="V96" s="10"/>
+    </row>
+    <row r="97" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="50"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G97" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H97" s="76">
+        <v>1</v>
+      </c>
+      <c r="I97" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J97" s="30">
+        <v>45167</v>
+      </c>
+      <c r="K97" s="31">
+        <v>45167</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="V97" s="10"/>
+    </row>
+    <row r="98" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="50"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G98" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H98" s="76">
+        <v>1</v>
+      </c>
+      <c r="I98" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J98" s="30">
+        <v>45167</v>
+      </c>
+      <c r="K98" s="31">
+        <v>45167</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="V98" s="10"/>
     </row>
     <row r="99" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="57"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H99" s="32"/>
-      <c r="I99" s="31">
+      <c r="B99" s="50"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G99" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H99" s="76">
+        <v>1</v>
+      </c>
+      <c r="I99" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J99" s="33">
-        <v>45165</v>
-      </c>
-      <c r="K99" s="34">
+        <v>1</v>
+      </c>
+      <c r="J99" s="30">
         <v>45167</v>
       </c>
-      <c r="U99" s="10"/>
+      <c r="K99" s="31">
+        <v>45167</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="V99" s="10"/>
     </row>
     <row r="100" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="57"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G100" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H100" s="36"/>
-      <c r="I100" s="35">
+      <c r="B100" s="50"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G100" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H100" s="76">
+        <v>1</v>
+      </c>
+      <c r="I100" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J100" s="37">
-        <v>45166</v>
-      </c>
-      <c r="K100" s="38">
+        <v>1</v>
+      </c>
+      <c r="J100" s="30">
         <v>45167</v>
       </c>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
+      <c r="K100" s="31">
+        <v>45167</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="V100" s="10"/>
     </row>
     <row r="101" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="57"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E101" s="47"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H101" s="28"/>
-      <c r="I101" s="27">
+      <c r="B101" s="50"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H101" s="76">
+        <v>1</v>
+      </c>
+      <c r="I101" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J101" s="29">
-        <v>45165</v>
-      </c>
-      <c r="K101" s="30">
+        <v>1</v>
+      </c>
+      <c r="J101" s="33">
         <v>45167</v>
       </c>
+      <c r="K101" s="34">
+        <v>45167</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="V101" s="10"/>
     </row>
     <row r="102" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="57"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F102" s="42"/>
-      <c r="G102" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H102" s="32"/>
-      <c r="I102" s="31">
+      <c r="B102" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" s="25"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H102" s="76">
+        <v>1</v>
+      </c>
+      <c r="I102" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J102" s="33">
+      <c r="J102" s="27">
         <v>45167</v>
       </c>
-      <c r="K102" s="34">
+      <c r="K102" s="28">
         <v>45167</v>
       </c>
-      <c r="V102" s="10"/>
+      <c r="L102" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="W102" s="10"/>
     </row>
     <row r="103" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="57"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G103" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H103" s="32"/>
-      <c r="I103" s="31">
+      <c r="B103" s="50"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F103" s="38"/>
+      <c r="G103" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H103" s="76">
+        <v>1</v>
+      </c>
+      <c r="I103" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J103" s="33">
-        <v>45167</v>
-      </c>
-      <c r="K103" s="34">
-        <v>45167</v>
-      </c>
-      <c r="V103" s="10"/>
+      <c r="J103" s="30">
+        <v>45168</v>
+      </c>
+      <c r="K103" s="31">
+        <v>45168</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="W103" s="10"/>
     </row>
     <row r="104" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="57"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="G104" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H104" s="32"/>
-      <c r="I104" s="31">
+      <c r="B104" s="50"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H104" s="76">
+        <v>1</v>
+      </c>
+      <c r="I104" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J104" s="33">
-        <v>45167</v>
-      </c>
-      <c r="K104" s="34">
-        <v>45167</v>
-      </c>
-      <c r="V104" s="10"/>
+      <c r="J104" s="30">
+        <v>45168</v>
+      </c>
+      <c r="K104" s="31">
+        <v>45168</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="W104" s="10"/>
     </row>
     <row r="105" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="57"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="G105" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H105" s="32"/>
-      <c r="I105" s="31">
+      <c r="B105" s="50"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H105" s="76">
+        <v>1</v>
+      </c>
+      <c r="I105" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J105" s="33">
-        <v>45167</v>
-      </c>
-      <c r="K105" s="34">
-        <v>45167</v>
-      </c>
-      <c r="V105" s="10"/>
+      <c r="J105" s="30">
+        <v>45168</v>
+      </c>
+      <c r="K105" s="31">
+        <v>45168</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="W105" s="10"/>
     </row>
     <row r="106" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="57"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="G106" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H106" s="32"/>
-      <c r="I106" s="31">
+      <c r="B106" s="50"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G106" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H106" s="76">
+        <v>1</v>
+      </c>
+      <c r="I106" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J106" s="33">
-        <v>45167</v>
-      </c>
-      <c r="K106" s="34">
-        <v>45167</v>
-      </c>
-      <c r="V106" s="10"/>
+      <c r="J106" s="30">
+        <v>45168</v>
+      </c>
+      <c r="K106" s="31">
+        <v>45168</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="W106" s="10"/>
     </row>
     <row r="107" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="57"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="G107" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H107" s="32"/>
-      <c r="I107" s="31">
+      <c r="B107" s="51"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G107" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H107" s="76">
+        <v>1</v>
+      </c>
+      <c r="I107" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J107" s="33">
-        <v>45167</v>
+        <v>45168</v>
       </c>
       <c r="K107" s="34">
-        <v>45167</v>
-      </c>
-      <c r="V107" s="10"/>
+        <v>45168</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="W107" s="10"/>
     </row>
     <row r="108" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="57"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="G108" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="H108" s="36"/>
-      <c r="I108" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J108" s="37">
-        <v>45167</v>
-      </c>
-      <c r="K108" s="38">
-        <v>45167</v>
-      </c>
-      <c r="V108" s="10"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
     </row>
     <row r="109" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C109" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D109" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E109" s="26"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H109" s="28"/>
-      <c r="I109" s="27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J109" s="29">
-        <v>45167</v>
-      </c>
-      <c r="K109" s="30">
-        <v>45167</v>
-      </c>
-      <c r="W109" s="10"/>
-    </row>
-    <row r="110" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="57"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F110" s="42"/>
-      <c r="G110" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H110" s="32"/>
-      <c r="I110" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J110" s="33">
-        <v>45168</v>
-      </c>
-      <c r="K110" s="34">
-        <v>45168</v>
-      </c>
-      <c r="W110" s="10"/>
-    </row>
-    <row r="111" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="57"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G111" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H111" s="32"/>
-      <c r="I111" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J111" s="33">
-        <v>45168</v>
-      </c>
-      <c r="K111" s="34">
-        <v>45168</v>
-      </c>
-      <c r="W111" s="10"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="21"/>
     </row>
     <row r="112" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="57"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="G112" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H112" s="32"/>
-      <c r="I112" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J112" s="33">
-        <v>45168</v>
-      </c>
-      <c r="K112" s="34">
-        <v>45168</v>
-      </c>
-      <c r="W112" s="10"/>
-    </row>
-    <row r="113" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="57"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G113" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H113" s="32"/>
-      <c r="I113" s="31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J113" s="33">
-        <v>45168</v>
-      </c>
-      <c r="K113" s="34">
-        <v>45168</v>
-      </c>
-      <c r="W113" s="10"/>
-    </row>
-    <row r="114" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="58"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="H114" s="36"/>
-      <c r="I114" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J114" s="37">
-        <v>45168</v>
-      </c>
-      <c r="K114" s="38">
-        <v>45168</v>
-      </c>
-      <c r="W114" s="10"/>
-    </row>
-    <row r="115" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="45"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-    </row>
-    <row r="116" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="46"/>
-      <c r="D116" s="22"/>
-    </row>
-    <row r="119" spans="2:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E119" s="22"/>
+      <c r="E112" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -4554,15 +4869,15 @@
     <mergeCell ref="AT11:AZ11"/>
     <mergeCell ref="N10:X10"/>
     <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="B102:B107"/>
     <mergeCell ref="F13:F23"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C20"/>
     <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C31:C108"/>
-    <mergeCell ref="C109:C114"/>
-    <mergeCell ref="B31:B108"/>
+    <mergeCell ref="C31:C101"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="B31:B101"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B23"/>
